--- a/data/stats.xlsx
+++ b/data/stats.xlsx
@@ -450,7 +450,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>od_corrected</t>
+          <t>bnip3_level</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -464,43 +464,43 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.11043038801383</v>
+        <v>0.136583870967742</v>
       </c>
       <c r="E2">
-        <v>0.1023</v>
+        <v>0.0985</v>
       </c>
       <c r="F2">
-        <v>0.0610834013130288</v>
+        <v>0.0802900869629379</v>
       </c>
       <c r="G2">
-        <v>0.00373118191596853</v>
+        <v>0.00644649806451613</v>
       </c>
       <c r="H2">
-        <v>0.553139424859929</v>
+        <v>0.58784457047568</v>
       </c>
       <c r="I2">
-        <v>0.0698</v>
+        <v>0.0891999999999999</v>
       </c>
       <c r="J2">
-        <v>0.000200000000000033</v>
+        <v>0.0459999999999999</v>
       </c>
       <c r="K2">
-        <v>0.5412</v>
+        <v>0.3582</v>
       </c>
       <c r="L2">
-        <v>1.42548755445703</v>
+        <v>1.37983467256919</v>
       </c>
       <c r="M2">
-        <v>4.22873995894973</v>
+        <v>1.37386923608185</v>
       </c>
       <c r="N2">
-        <v>5206</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>od_corrected</t>
+          <t>bnip3_level</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -514,43 +514,43 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.211093388791594</v>
+        <v>0.090715625</v>
       </c>
       <c r="E3">
-        <v>0.1922</v>
+        <v>0.07555</v>
       </c>
       <c r="F3">
-        <v>0.1297771151482</v>
+        <v>0.0654307716370221</v>
       </c>
       <c r="G3">
-        <v>0.0168420996161892</v>
+        <v>0.00428118587701613</v>
       </c>
       <c r="H3">
-        <v>0.614785313226106</v>
+        <v>0.721273448063903</v>
       </c>
       <c r="I3">
-        <v>0.178925</v>
+        <v>0.0599750000000001</v>
       </c>
       <c r="J3">
-        <v>0.000599999999999989</v>
+        <v>0.0117</v>
       </c>
       <c r="K3">
-        <v>0.7892</v>
+        <v>0.3892</v>
       </c>
       <c r="L3">
-        <v>0.886449204623872</v>
+        <v>3.18605312641157</v>
       </c>
       <c r="M3">
-        <v>0.762801107493714</v>
+        <v>13.9334745481604</v>
       </c>
       <c r="N3">
-        <v>6852</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>od_corrected</t>
+          <t>bnip3_level</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -564,43 +564,43 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.19594798206278</v>
+        <v>0.0381433333333333</v>
       </c>
       <c r="E4">
-        <v>0.1776</v>
+        <v>0.0371</v>
       </c>
       <c r="F4">
-        <v>0.11767354232623</v>
+        <v>0.0182408159854786</v>
       </c>
       <c r="G4">
-        <v>0.0138470625636031</v>
+        <v>0.000332727367816092</v>
       </c>
       <c r="H4">
-        <v>0.600534596414105</v>
+        <v>0.478217669810678</v>
       </c>
       <c r="I4">
-        <v>0.16235</v>
+        <v>0.0242249999999999</v>
       </c>
       <c r="J4">
-        <v>0.000299999999999995</v>
+        <v>0.0116</v>
       </c>
       <c r="K4">
-        <v>0.9776</v>
+        <v>0.0843</v>
       </c>
       <c r="L4">
-        <v>0.927192887543232</v>
+        <v>0.885219109507963</v>
       </c>
       <c r="M4">
-        <v>1.25655544194409</v>
+        <v>0.60522286203528</v>
       </c>
       <c r="N4">
-        <v>6244</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>od_corrected</t>
+          <t>bnip3_level</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -614,43 +614,43 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.268740723915592</v>
+        <v>0.240141379310345</v>
       </c>
       <c r="E5">
-        <v>0.1985</v>
+        <v>0.241</v>
       </c>
       <c r="F5">
-        <v>0.205262459511231</v>
+        <v>0.102674678743945</v>
       </c>
       <c r="G5">
-        <v>0.0421326772845997</v>
+        <v>0.0105420896551724</v>
       </c>
       <c r="H5">
-        <v>0.763793654048879</v>
+        <v>0.42755929460726</v>
       </c>
       <c r="I5">
-        <v>0.30005</v>
+        <v>0.17845</v>
       </c>
       <c r="J5">
-        <v>0.000299999999999967</v>
+        <v>0.0422</v>
       </c>
       <c r="K5">
-        <v>1.1259</v>
+        <v>0.3896</v>
       </c>
       <c r="L5">
-        <v>0.955487862536198</v>
+        <v>-0.153455068595115</v>
       </c>
       <c r="M5">
-        <v>0.0664868172836511</v>
+        <v>-1.2463369105891</v>
       </c>
       <c r="N5">
-        <v>6824</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>od_corrected</t>
+          <t>bnip3_level</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -664,43 +664,43 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.116064436546101</v>
+        <v>0.068475</v>
       </c>
       <c r="E6">
-        <v>0.1022</v>
+        <v>0.0712</v>
       </c>
       <c r="F6">
-        <v>0.0662795171346721</v>
+        <v>0.0183535528774623</v>
       </c>
       <c r="G6">
-        <v>0.00439297439160529</v>
+        <v>0.000336852903225806</v>
       </c>
       <c r="H6">
-        <v>0.571057932188779</v>
+        <v>0.268032900729644</v>
       </c>
       <c r="I6">
-        <v>0.073</v>
+        <v>0.0248</v>
       </c>
       <c r="J6">
-        <v>0.000200000000000033</v>
+        <v>0.0386000000000001</v>
       </c>
       <c r="K6">
-        <v>0.4991</v>
+        <v>0.1052</v>
       </c>
       <c r="L6">
-        <v>1.51226759636903</v>
+        <v>0.0834245985113483</v>
       </c>
       <c r="M6">
-        <v>3.66370593871252</v>
+        <v>-0.574782257057497</v>
       </c>
       <c r="N6">
-        <v>4783</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>od_corrected</t>
+          <t>bnip3_level</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -714,37 +714,37 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.205908475941212</v>
+        <v>0.095584375</v>
       </c>
       <c r="E7">
-        <v>0.1687</v>
+        <v>0.08915</v>
       </c>
       <c r="F7">
-        <v>0.131046052470633</v>
+        <v>0.0430362121292695</v>
       </c>
       <c r="G7">
-        <v>0.0171730678681359</v>
+        <v>0.00185211555443548</v>
       </c>
       <c r="H7">
-        <v>0.636428645647629</v>
+        <v>0.450243171326585</v>
       </c>
       <c r="I7">
-        <v>0.1856</v>
+        <v>0.069925</v>
       </c>
       <c r="J7">
-        <v>0.00179999999999997</v>
+        <v>0.0302999999999999</v>
       </c>
       <c r="K7">
-        <v>0.7615</v>
+        <v>0.197</v>
       </c>
       <c r="L7">
-        <v>0.994998189867713</v>
+        <v>0.54128059568509</v>
       </c>
       <c r="M7">
-        <v>0.583234615067811</v>
+        <v>-0.404168139530224</v>
       </c>
       <c r="N7">
-        <v>4967</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
